--- a/산출물/메인프로젝트_1팀_WBS_v1.2.xlsx
+++ b/산출물/메인프로젝트_1팀_WBS_v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc237f67cb5090a6/Desktop/GlobalMainProject/산출물/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{B1D6C7DE-1301-40C7-9E45-04A995DAAE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29853604-68D8-425A-9FCC-84484B335729}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{B1D6C7DE-1301-40C7-9E45-04A995DAAE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0BD0514-7D53-4FA2-B389-327691A0A7FC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2911056D-CEA2-4BD9-AA47-60248FB27749}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +505,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -741,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,57 +840,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -891,14 +848,66 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -914,6 +923,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1215,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE02C2D2-1E5C-4A08-8A7B-F42FA2D4C018}">
   <dimension ref="A1:BI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1509,14 +1522,14 @@
         <v>39</v>
       </c>
       <c r="M5" s="4"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
       <c r="P5" s="4" t="s">
         <v>82</v>
       </c>
       <c r="Q5" s="4"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
       <c r="T5" s="4" t="s">
         <v>83</v>
       </c>
@@ -1691,184 +1704,184 @@
       <c r="BI7" s="22"/>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="38" t="s">
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="38" t="s">
+      <c r="Q8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="38" t="s">
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="38" t="s">
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="38" t="s">
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="38" t="s">
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AT8" s="39"/>
-      <c r="AU8" s="39"/>
-      <c r="AV8" s="39"/>
-      <c r="AW8" s="39"/>
-      <c r="AX8" s="39"/>
-      <c r="AY8" s="45"/>
-      <c r="AZ8" s="38" t="s">
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="BA8" s="39"/>
-      <c r="BB8" s="39"/>
-      <c r="BC8" s="39"/>
-      <c r="BD8" s="39"/>
-      <c r="BE8" s="39"/>
-      <c r="BF8" s="45"/>
-      <c r="BG8" s="38" t="s">
+      <c r="BA8" s="62"/>
+      <c r="BB8" s="62"/>
+      <c r="BC8" s="62"/>
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="62"/>
+      <c r="BF8" s="63"/>
+      <c r="BG8" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="BH8" s="39"/>
-      <c r="BI8" s="39"/>
+      <c r="BH8" s="62"/>
+      <c r="BI8" s="62"/>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="54"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="40">
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="48">
         <v>45901</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="40">
+      <c r="Q9" s="48">
         <v>45908</v>
       </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="40">
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="48">
         <v>45915</v>
       </c>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="40">
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="48">
         <v>45922</v>
       </c>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="40">
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="48">
         <v>45929</v>
       </c>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="41"/>
-      <c r="AO9" s="41"/>
-      <c r="AP9" s="41"/>
-      <c r="AQ9" s="41"/>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="40">
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="48">
         <v>45936</v>
       </c>
-      <c r="AT9" s="41"/>
-      <c r="AU9" s="41"/>
-      <c r="AV9" s="41"/>
-      <c r="AW9" s="41"/>
-      <c r="AX9" s="41"/>
-      <c r="AY9" s="46"/>
-      <c r="AZ9" s="40">
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="49"/>
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="48">
         <v>45943</v>
       </c>
-      <c r="BA9" s="41"/>
-      <c r="BB9" s="41"/>
-      <c r="BC9" s="41"/>
-      <c r="BD9" s="41"/>
-      <c r="BE9" s="41"/>
-      <c r="BF9" s="46"/>
-      <c r="BG9" s="40">
+      <c r="BA9" s="49"/>
+      <c r="BB9" s="49"/>
+      <c r="BC9" s="49"/>
+      <c r="BD9" s="49"/>
+      <c r="BE9" s="49"/>
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="48">
         <v>45950</v>
       </c>
-      <c r="BH9" s="41"/>
-      <c r="BI9" s="41"/>
+      <c r="BH9" s="49"/>
+      <c r="BI9" s="49"/>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="54"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
@@ -2036,7 +2049,7 @@
       </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2062,7 +2075,7 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="57"/>
+      <c r="K11" s="40"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="16"/>
@@ -2115,7 +2128,7 @@
       <c r="BI11" s="14"/>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2139,7 +2152,7 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="64"/>
+      <c r="K12" s="44"/>
       <c r="L12" s="16"/>
       <c r="M12" s="14"/>
       <c r="N12" s="16"/>
@@ -2192,10 +2205,10 @@
       <c r="BI12" s="14"/>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2218,7 +2231,7 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="58"/>
+      <c r="K13" s="41"/>
       <c r="L13" s="16"/>
       <c r="M13" s="14"/>
       <c r="N13" s="16"/>
@@ -2271,8 +2284,8 @@
       <c r="BI13" s="14"/>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2294,7 +2307,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="14"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="58"/>
+      <c r="L14" s="41"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="17"/>
@@ -2346,8 +2359,8 @@
       <c r="BI14" s="14"/>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="45" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2375,13 +2388,13 @@
       <c r="K15" s="16"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
-      <c r="N15" s="55"/>
+      <c r="N15" s="38"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="60"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="43"/>
       <c r="U15" s="14"/>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
@@ -2425,8 +2438,8 @@
       <c r="BI15" s="14"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
@@ -2455,10 +2468,10 @@
       <c r="N16" s="25"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
       <c r="U16" s="14"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
@@ -2502,8 +2515,8 @@
       <c r="BI16" s="14"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
@@ -2530,7 +2543,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
-      <c r="Q17" s="58"/>
+      <c r="Q17" s="25"/>
       <c r="R17" s="16"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -2577,7 +2590,7 @@
       <c r="BI17" s="14"/>
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2604,7 +2617,7 @@
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="58"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="16"/>
@@ -2654,7 +2667,7 @@
       <c r="BI18" s="14"/>
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
@@ -2684,7 +2697,7 @@
       <c r="N19" s="25"/>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
-      <c r="Q19" s="58"/>
+      <c r="Q19" s="25"/>
       <c r="R19" s="16"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
@@ -2731,7 +2744,7 @@
       <c r="BI19" s="14"/>
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2810,8 +2823,8 @@
       <c r="BI20" s="14"/>
     </row>
     <row r="21" spans="1:61" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="45" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="37" t="s">
@@ -2841,7 +2854,7 @@
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="25"/>
-      <c r="R21" s="58"/>
+      <c r="R21" s="64"/>
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
@@ -2887,8 +2900,8 @@
       <c r="BI21" s="14"/>
     </row>
     <row r="22" spans="1:61" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="37" t="s">
         <v>81</v>
       </c>
@@ -2920,7 +2933,7 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
-      <c r="T22" s="61"/>
+      <c r="T22" s="16"/>
       <c r="U22" s="16"/>
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
@@ -2964,8 +2977,8 @@
       <c r="BI22" s="14"/>
     </row>
     <row r="23" spans="1:61" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="37" t="s">
         <v>74</v>
       </c>
@@ -3039,8 +3052,8 @@
       <c r="BI23" s="14"/>
     </row>
     <row r="24" spans="1:61" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="37" t="s">
         <v>75</v>
       </c>
@@ -3114,8 +3127,8 @@
       <c r="BI24" s="14"/>
     </row>
     <row r="25" spans="1:61" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="37" t="s">
         <v>76</v>
       </c>
@@ -3189,8 +3202,8 @@
       <c r="BI25" s="14"/>
     </row>
     <row r="26" spans="1:61" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="37" t="s">
         <v>77</v>
       </c>
@@ -3264,8 +3277,8 @@
       <c r="BI26" s="14"/>
     </row>
     <row r="27" spans="1:61" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="37" t="s">
         <v>78</v>
       </c>
@@ -3339,8 +3352,8 @@
       <c r="BI27" s="14"/>
     </row>
     <row r="28" spans="1:61" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="37" t="s">
         <v>79</v>
       </c>
@@ -3414,7 +3427,7 @@
       <c r="BI28" s="14"/>
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
@@ -3491,7 +3504,7 @@
       <c r="BI29" s="14"/>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
@@ -3568,7 +3581,7 @@
       <c r="BI30" s="14"/>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="45" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3647,7 +3660,7 @@
       <c r="BI31" s="14"/>
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
@@ -3724,7 +3737,7 @@
       <c r="BI32" s="14"/>
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="45" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3803,7 +3816,7 @@
       <c r="BI33" s="14"/>
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A34" s="52"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
@@ -3881,22 +3894,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A20:A30"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="AZ8:BF8"/>
-    <mergeCell ref="AZ9:BF9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B17"/>
     <mergeCell ref="BG8:BI8"/>
     <mergeCell ref="BG9:BI9"/>
     <mergeCell ref="E8:E10"/>
@@ -3912,6 +3909,22 @@
     <mergeCell ref="X8:AD8"/>
     <mergeCell ref="J9:O9"/>
     <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="AZ8:BF8"/>
+    <mergeCell ref="AZ9:BF9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
